--- a/test-data/leadimage-data.xlsx
+++ b/test-data/leadimage-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6019496-5710-E249-9EEE-A92F80194D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48ADBAD-16DD-F345-B0D5-4156EFB27F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1780" windowWidth="32020" windowHeight="14940" firstSheet="3" activeTab="3" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
+    <workbookView xWindow="1580" yWindow="1780" windowWidth="32020" windowHeight="14940" xr2:uid="{112BCE41-1B7B-AF44-BEF2-07A92CFC037C}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_leadimage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
   <si>
     <t>path</t>
   </si>
@@ -134,15 +134,6 @@
   </si>
   <si>
     <t>Credit: iStock</t>
-  </si>
-  <si>
-    <t>news-events/press-releases/2019/brca-exchange</t>
-  </si>
-  <si>
-    <t>The BRXA Exhange graphic</t>
-  </si>
-  <si>
-    <t>Credit: BRCA Challenge</t>
   </si>
   <si>
     <t>espanol/efectos-secundarios</t>
@@ -529,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABDEF67-3BF3-604C-97A8-A43819B8E79D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +593,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -611,18 +602,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -631,18 +622,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -651,13 +642,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +661,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,10 +755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FD5B02-F1AB-4576-A73A-244C78D6C857}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,13 +868,16 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -897,16 +891,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -923,30 +917,10 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -956,10 +930,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DB49F4-0D71-45D4-8B24-7BA34D48B26C}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1083,24 +1057,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1108,24 +1085,24 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1134,30 +1111,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1127,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1201,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1253,18 +1210,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1273,13 +1230,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
